--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/68_Siirt_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/68_Siirt_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DDAA99D-D283-43F7-AC78-0461AABA5453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{828A1560-24EF-44FC-8EA9-E60C39A729D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{BBD2A506-E7B5-401D-97AA-45C86046F1CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{C8EAF237-5B56-480F-9063-9A6B4D66D502}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -953,13 +953,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{21410E3A-0AAA-4158-B2A0-FC103A6690CA}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7FE321F5-72C0-4F45-9A4E-E1124FFE1E46}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{395CD017-045C-482F-854C-D70E6FE7A01A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0C6F1F78-5366-4C1D-BE18-C01B2D4582AE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FF14D6AA-498C-4294-8D3F-2FAF30233DA0}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{147917AC-2A52-41F9-A86A-92A8FB0AF354}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A60ACC0B-DB99-4201-A479-19EAB200D614}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7C0D6619-9A7D-4DDB-A06D-D301C996150B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{21CD0F09-F420-49FF-9FCB-715D3D9400D4}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C35173DE-BBEA-4F78-91C2-EE1905E69EFA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{02A06EF2-3F6D-422A-8D6D-A9A8B5BAA858}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{17B30001-2A85-4129-8F26-81C22D2866C6}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{90EA7BEE-0E96-44B8-97A8-BD5411FF86CB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{68D5C098-8D36-4CF5-BE51-D4D8ECAEFBBA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2AB9C7-23EF-40EE-AEE1-BEBD991AA5F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6053D080-E2B3-4083-A20E-9D03DBDA7286}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2531,18 +2531,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B5B4BD5-615C-45D0-B341-DBDC71FB4262}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1338DA05-5A64-4098-98F6-50E3E55BAB8C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5435BD14-3353-40A7-A031-C49BC680B1C1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8516C16A-D8DF-4470-9292-EDC213DB5BE9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{006DCFD7-7F9A-430A-B589-AAC73577F890}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{635369EC-B35A-4B94-BDA8-5F17D17BB86B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BEDA5D58-27B7-4705-97FB-46233F404E14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0D7646A-15B3-4E19-BD5D-0E005D2012DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{604112FB-FF85-4EFC-AB38-1A537D0AD211}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D721F220-E41A-487C-9C29-70439D36C12F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0335FFF1-E3B8-4D61-A7D5-19EC98F0CCA6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{288C8FB3-94EA-47A1-9D05-021F52E21D86}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85000101-949F-415A-96B5-383B49AE0A75}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B1407E7-DEB2-4511-95AB-27E65FC98084}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6A88A30C-C5EE-4A40-8E1A-75FC77494C26}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8BDAECBE-A5C8-4889-AF1D-7C65CE3F6814}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB8930F3-F019-4729-9A12-8EAB8A90B817}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A4C9384C-440E-4690-B69E-5C7D3D3D6D43}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44033F1F-B4A4-4933-884D-E4188AFB5733}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{048ABEFE-E668-4978-9F85-A25E888BB6FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1138E934-9C95-4DDB-B958-FBCF28B057A2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7FB3EEBA-6324-4161-A826-82A8BA053A1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB8377E5-19B0-4893-9636-B8FB31A08263}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D98284D-00F8-4D5B-8C68-FD39345C7FB4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2555,7 +2555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374FD64A-68FC-425F-A8C1-6D7E35018EF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E52588-7986-4A41-A361-A468C5859C7B}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3737,18 +3737,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70B42E37-6DA2-4237-8E8D-EAF14DE82580}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F11A1DED-F72E-43DB-BD3B-0A17A4E8F9BA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6CAFDF2A-C578-4C0C-8611-0A5FC71416A4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6595DB1A-F679-469D-9A03-A96E1E460D66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D284B9E-2582-4017-ADC3-DB0A88FB6715}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B55E21E4-BE65-48DC-B3E8-47349F0ACA41}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{707F112B-55E1-4124-8D75-05ABFF2C24EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F035C21-0F2D-4304-B2FF-2AB9F435E6B0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE08BCF7-9946-4B17-8CCF-76296FCCDBBD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7FFDD759-85BF-4FD3-AA2F-A1F55BEB8E65}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84BFF8F8-87C1-4BCA-A754-322DADCB348D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{135649E3-05EC-411F-8432-816CD6523595}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A02A516-272C-4791-99FE-3785DACDE002}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22707362-8698-4E70-B0CD-62B0A01D9D17}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E5E46A4-5295-474A-9B3C-1B68BB5B1E3E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8950E4D2-9DB5-4C2A-9D1B-43C7811CF304}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0FA18496-1348-4F86-8674-D631D2DAD475}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DB0163B6-92E3-4C4C-8007-26F1D889EDC5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1E41F03-4A74-4BD7-8A11-88E1E83A50EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31CCC991-610F-426B-901E-B95F613C9A44}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{813E29B5-AE4F-4CBD-9D22-6923B5A52996}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3694AF80-9F8A-4E79-A3BA-3873C485E763}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03C3CC76-A7DA-462A-9459-7D356EF76589}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E9963408-6BD7-4E60-A9CC-307C4BDD86C0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3761,7 +3761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E6042F-90E5-4D4D-A232-7DC22ECA58F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84558CBF-6394-4F70-ABAF-910B75AD3242}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4943,18 +4943,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB4C1F07-D39C-4653-8AFE-79C0AFDA26C9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8AA9750C-F982-435E-864B-F5486036EC50}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{19FFC6B4-352B-429B-97FB-FB0F2493DC58}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BAE87CBD-0A0F-4930-88F3-355C3F0A73A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{175F1BF0-D02D-4EEE-AFD9-5D0881F6BAC2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A8FB06DC-A64C-4FEE-A57F-CA314FBC4354}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{673C3EBF-B21E-4D18-866D-FB42EF716A11}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0140D70-4EDF-43E3-B466-31B5950CB1F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4EBD903A-225C-4B54-9BA5-BA48F6973A49}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F5B3128C-B923-42F9-B4B6-DE3A10FC37A4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{396D0545-AFE5-47A4-B864-6270E113DB98}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE528024-BFBF-410B-9C3F-2D0E3A0E56C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4433DD39-5635-4AC1-ADE1-4B298A1F4E15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05E5C9DE-880A-4660-9C49-385C8294D8F8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CB3AD8DB-CC04-49C3-9BEE-44E756CB285C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2B80E4C0-BF99-4E51-A76F-D776947AE543}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD3C0244-6F7A-47C7-A9F0-9862210F17EC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FEABCCA9-C031-4EB5-BE5A-9079A1A9689C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{390F86CA-F6D2-4589-8E1A-BC96809373AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF173B54-132C-471A-BE03-87B33EE67433}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB63ED46-8EEE-42A6-9FA3-13BF1672C35D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0FA25B1D-440D-41F1-90B9-EB5B43EDBA1B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF5D6334-2CD1-45B2-BE20-AC65F0023BB4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79772805-4E2E-4F1F-AE29-8E8A46286E34}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4967,7 +4967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94612334-72EC-4420-B734-01EDB34523D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14C109C-5EBB-464B-859E-826540234F63}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6145,18 +6145,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04ECCC09-7822-41D9-80C7-601F70B6D149}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6B442D7-D80D-4DD1-BA43-AAC089F98E74}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F89FC3BE-F97F-49C5-B8D6-4F5BC50B1360}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84DA4A98-7490-4FE2-82C1-BFFF92E2D6A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DADEA6B7-46F0-4154-90C9-F30A3A58987D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6BC170F0-2C08-4B2F-890E-0B9BF53C7202}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FEE3C228-3E8E-43CF-8B90-3EC63C68E33D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1E4ABB2-E42A-4110-A3F4-08AFF6589E91}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CEDED0BD-D540-475C-A3D0-E01C12CCF0A8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C4B9E043-BBF6-4AEE-82D2-0331407696CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4818FBF9-4DBB-4CAF-88A4-94177DC043C0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A467676-9972-400E-9311-8E709820E0D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73ADBAF1-112E-44EE-9647-61787DF4EAA8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0BD5F25-CF14-4FBB-939E-DD766F2E3986}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7A84F6B3-347E-49AE-B28E-AA2C87FA4F84}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{663834AB-8A05-4DF5-9761-72D20F3EF2E6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38E66879-CE25-47E4-84C3-58750411BFE3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B4435246-22B5-45B6-888D-40EB150483E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21A9E022-120E-4E7E-8C5C-F80AB2C3EA6D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23E8C869-D46F-4131-97D1-B5E8AFE16828}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C45EF7D1-2C5A-458F-8CDB-2F74864ECC7E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4D2ADC12-D389-4F5F-A946-FE9B236723B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C08258E-3241-4AFD-991D-ACDD20BB3036}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50EF6294-E5AB-4007-AA27-8C13EFCBD36E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6169,7 +6169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D130096-9871-4D78-910F-54C89BA9E849}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EA0D78-869B-4404-A8C0-6FBECA967ACC}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7371,18 +7371,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1D63F81-1460-4EDB-8E89-DDEF1CBDEA1B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A85D0156-CECB-430A-9A98-409AFEF02355}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DF1150FF-0B37-4F72-B474-80D091CF98C3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BC536CC0-FEEC-4EE3-B5EF-EF3B14BF7217}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E01C43F-70BC-4A89-8BD1-E115908C7828}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C3BA2E2-B88C-4706-9F4E-A064F15DFCC6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40F1A425-7B1D-46E8-B759-6691CA60FA0D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4457A245-4A02-4B69-8961-916524F24B72}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61829702-10AB-40E4-81EA-572787F3DD61}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D32E0E66-F98A-465C-8357-75F0AFE00DCB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7D7905D-4276-4062-B39E-6A078FFA60C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BFB3D0E-3D77-46DA-802C-A0081FDD22E7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B098F3A4-2F80-4077-81EB-57E526C3515F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C0B9504-8B86-4D7E-97F1-DFE14F380D8B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{54776C09-F421-4E16-B18D-668002E4E6BA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E36AB887-1D5C-471A-9014-6DCD3D4CE2A9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1378C0B9-33FD-4E80-9728-8BA9868A3DE3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{403A0085-669A-4C30-846E-CAD25BA94A5C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA8123AD-5633-47EE-9E92-9F9E5F033AFC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36EE7674-C56E-4E1B-A022-5FD5509FBAB7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0187F8EA-743A-451A-A634-86BB8499020F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3863C578-C4F5-4ED1-AE6F-9EF7AD88DB4A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A43567F5-17DF-4C3F-BBD9-DC5C288B3678}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E86366C-9B0A-4DE2-A6CB-D76D0A4EB4A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7395,7 +7395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2878FA19-006F-4F94-9F4B-78765AC796B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D417035F-ECED-47CA-B633-C20D9DCCA8BE}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8593,18 +8593,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC93DD32-0A22-44FE-A8BB-667594870BD2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F82DD8D-7AFE-450B-935C-1DBBDD90EF87}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B3CC4C2D-CFDF-4695-8F1F-7446B0A1B446}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F1ADFA9B-C90C-449A-A18F-6FA1641F031F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F01714B3-D55F-469D-BE63-45785658D7F2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0603CD1-2E49-450E-93DC-5D9993CB9FF4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96DC72EB-E448-4FD4-AF2D-DE2171491A62}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{10B7E261-2D3E-465E-BD18-65DE12971D20}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{66B58BE4-2EEC-4C0E-952C-80A27AD6EC43}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{47D67D07-43C0-4225-924A-6E3B7CD4721F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{46D42415-82E2-4388-AE2A-FC6CF4DA07CB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A637B3C3-2649-4276-A9E2-AB021275CAC9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC3EEB12-1D73-4581-AB38-F83D9CCA9D5D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9FE0AB35-C05B-4748-BBB2-F5320B7A5496}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{345D7E48-28D4-4F3E-BB62-AF0722FF5AE2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5078B507-5CC7-4EB6-B5F0-1866FAF21613}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{435C6955-9EC4-48C2-9A61-F792E2BD39AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{65F06C73-DCF5-4C8F-A0F1-84BA5369354E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C1F0BCB-AC9A-4999-9B2E-4A2296DED539}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05A7FB65-DF25-44CF-A0DF-D41A6C136DCF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3BB97A98-EC36-4F8F-A5A0-B26FCA40EDA4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B3F1065-E699-484D-87AA-56C95D8E77A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{410D91D6-1048-4D8A-8EF8-78B794290111}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F7512B4-ED05-4ACB-BBB1-9B05DB52CBCA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8617,7 +8617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F747C47-EF58-4BEF-A278-795EF2EE0182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACE1939-64A4-47E9-AC15-E641B7C96CD6}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9815,18 +9815,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5EB3A39B-0CA1-42CA-8FB9-239590E47EA0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3B78E86-BF5E-4FEC-A5A2-85B782CDFA50}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C9151A9-EB03-4A96-9BBF-FAEBEA3F2E10}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AAEF6764-5570-4767-AA09-C39F24823D34}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C624AF81-C1F4-4B1D-99D8-730CC00F914C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B41C6BE6-D2F0-4DF0-B100-230E7A2B0ED7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4E720F3-A056-4096-8C0B-7050880E526B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FB07983-9DB8-4D5C-BAD7-41DD905F2864}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC8E586E-E39D-4138-9814-791C1BE41AD9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A67CA478-F07F-4E18-9D52-D9C74D36E4EE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48195D45-E8E2-489B-805B-254AD974B645}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{197E647E-0588-45E6-B733-5E8F9A56910A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F8DA9971-FE74-4DEB-912B-DD075E57FCA1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{93A93098-9E01-4B4A-AE1E-DD5B12AE7E55}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E3A4B33B-A5FF-4B48-99A9-0DD7E2472F44}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{553A992D-9709-4ED3-9449-B66EDB4B9500}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1CFA90B4-883C-4D72-8FB2-2ED7279A9C70}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1F5CBC2-1F10-4AFD-ACAB-AAC8A26A0E7F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{161504BA-8CDE-4829-A8E4-9086ACE7E582}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD96881C-696D-4000-AC62-34FB27AA0563}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{078F3E4F-8B52-4D77-85D0-52E071CC1320}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B84AA9A6-B3E7-4242-BD7C-58B3D340F631}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3753D393-C128-4CEC-B994-9B6BCF17B273}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5765C3A5-6B52-495D-9D84-DE6AD8E24167}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9839,7 +9839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093CA141-D5C7-4BA6-9423-BF1BDE7BCC28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CEA0C8-C6BF-4769-AC70-E81EE650B2AA}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11037,18 +11037,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17698D64-4F66-4FF1-9182-2D03F27105D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A912285-BA23-4821-9CAD-5FA2913308A0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7CCC4D81-5AE7-4BE3-8ED1-5F72BE6FB1D3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{20AC5FE4-9E29-4FC2-B0C6-07EB7224164A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{125BD15C-85F1-47ED-9D54-2F666AA58745}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5F39BB2A-41F3-4C2D-9542-8234288F5BFF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5F7DEFD-E7F3-4C6F-8BDA-02F3A730E1F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D874CA11-2E55-4B75-94CB-D7E65F4E6215}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3B45F89-49DD-4E91-8837-EB1E0B68B6F5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F982C81A-F529-4C43-8299-6CB0DC5C6AAE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72A0FA7F-71FC-43BF-BA69-6530312EE6FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A55EB4D-D7FC-424F-A716-9290A813B1AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F0993612-D3F9-447B-8A1E-37953F335D2A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8989506D-A489-4159-A519-A49F6A313B5A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{02F68FCA-3028-466E-8C6F-424E942F9F05}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AB68FE0A-D103-4577-AF51-FB63853F0822}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1EDFA5AD-F3F5-4969-BD7B-3E6662B8D3B7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{870BDDE5-BFB9-4EE6-A56E-7BFB8AEC4BFD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D3DE041-6AB0-4F68-8068-9D4F7DE981F2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48910323-126A-474B-AFF9-36AA6258C406}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BCCB053C-2D43-422E-9CDB-1388986F8E22}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7AB1DD64-9E7A-47AC-B5C4-67B011E5A922}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A166BBBB-159D-432D-A937-76EA14C608AD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{558EF353-C1CC-4356-9283-3F44A9E76328}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11061,7 +11061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEABCCE2-5E1A-43AB-BED1-22D212D5C62D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E6B2F6-6A03-4A77-A698-5DC9FDBB9E10}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12247,18 +12247,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C76074C5-97E9-4987-8FA5-05365A6E0C5B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF0FEC66-8C94-45D0-805C-462447EB37F0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{21626AE1-B9D1-404E-86CD-3D324B57049B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E0A14495-7095-451D-B730-FAB43CA2D660}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05E3DF65-5F7C-4595-A7E7-AEA821156A0A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{144AAFE1-1F27-4051-ADB0-7CA9A9010043}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E3F878E-2BFE-4AB9-9C17-B9CDCDA91437}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC6782D0-AD95-4478-AA68-5514BE091967}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{301F5943-6D19-4376-9832-2BC3B1BFB39F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3D74647F-6F9F-4457-9C35-23C1CB73A1A2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F0BED08-F044-44F0-88CB-FEAEF985915C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0ED63B7-8C3B-45F9-8BCB-68A91013845E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA2BB588-6C2D-4725-96D3-8E5E7E5DB800}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7E41F6D-F73D-4ED6-A730-D85614A6BE41}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2E25E13-8848-4D2D-8F6B-27E411D2494C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{09635001-C3BA-446A-8EA5-F17FC7681DA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E04DFA77-FA0D-4E08-A83F-0E5EB8DFC0EF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14D3C9D6-4367-42DA-A7FA-148E22A5293F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03381F6D-B02C-4086-8A01-5739FA4BDF9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD3968D0-6954-4EA9-8A50-6110D52683B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3070149F-AE17-4AF6-9D85-2A5ED73ED4B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1999127D-F0A3-4768-B3FB-E066A216C047}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BDEDA527-5AC7-4673-9F0F-58B828B7BDCB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2804E5C9-3A66-498A-9539-8FBAB0B39C68}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12271,7 +12271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522CE5C5-6F90-4C3D-A814-7D571453E621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A98B6E-48F2-4561-AA6A-ED0190445F9C}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13457,18 +13457,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A605B75-66D5-4617-87AC-6DF5C768351F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6B8B230-84DA-4381-A810-B4298141EA5E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7EC101F3-A33A-441B-B247-F1AF032210BF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{97FA5A54-826E-4668-BA7E-F6EF6C7EB067}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C47532C9-07F3-4669-9550-BCF84E774278}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{28B66192-B644-471B-9BDD-5A172FBBE506}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40E5EC99-0FA4-4618-A9F6-C295F18D858A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EA3D8CF-9693-4867-95C9-A15D61DDAC1A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CCB86F37-4E49-4FBE-A34C-2F94BFDF26F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BE950143-CBE0-4612-8DBE-61350745120F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2121664-BA95-40A5-AAA5-4B5DCB5E0D97}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3A3D351-9DB7-43F8-954F-E6F99A69CF9E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D451586F-A008-49C9-869E-DFADD7080688}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE65B2CC-AD77-4AD8-BD7D-424AC0B01A88}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F175D20-3871-40F6-930C-85B0C7157E95}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6F6C9E5C-6EAF-4882-9CDB-EDBCA42744D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0AB4415-DC3A-4D4D-802B-8EDDDF639D65}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45F35C4F-66DD-4E31-94B7-F7E592AFDACB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{035740CA-54CC-4D04-8DF4-B869E69F2D96}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45206661-E7AF-458E-80F9-69860ADE2362}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1100D524-8EF3-43E2-82FC-6A114033CC1E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61FD207A-FDE8-4D99-B8CC-212150F0052D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D3B3B44-73FD-4352-B706-236EAC8FAA6C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1826A332-99F6-4DB8-9388-2FD51A84CB52}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13481,7 +13481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D815933C-7C84-4C8F-B677-167389D670DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615DC416-1EB7-4CD9-9EA2-3A2057A767D8}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14667,18 +14667,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07950566-8358-4E42-83E7-9867D9E3F2D8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{868EE4E6-1707-46C4-AE30-03D1FEFB5777}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F917F0D-1396-4C77-B697-5D4409796B73}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{79AD7F4D-8AEB-4BAD-A125-981A52FFBE93}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62446398-8FBD-494E-BD5E-BF0D50D0CEE9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DE489B01-4128-41B5-9D93-212772CE9859}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99BBD4EF-8B94-481A-9BE1-DF16A817EE6C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94F276D1-6714-4AE7-B173-F91CBCE7E0E7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E9A0BFA-633E-4679-B2A3-8DC8098E5C1F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8766532-FECC-4042-A0AC-130E65DE0EFF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{326A9432-1694-4CC0-879F-639727103DB4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06144247-77A7-4638-B271-25267253640D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49C4FE00-7D90-44D4-A2AA-F909BA0DA549}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19FBF62C-B183-4F6F-80EB-EA4DC0008D03}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{13B85CA8-BEFA-432C-B953-8552087A1527}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E99DB63-E5EF-43C8-B845-7BB5305FD3D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE6DEBB6-3C3B-42DF-890F-DC99A63BA2F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2CEA3BF-A067-4AF6-A932-47DF3971E00F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3781D497-AA3A-4E03-A9FB-0154392685B3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2692D1AD-67F3-4F98-8AAD-B0A581EB3A83}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2334983C-3FB8-42BC-8706-5FF0E0D4DB21}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{80688AA6-1516-418B-8B6A-98F334C326F6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06BBDB71-F924-46CD-B766-8653B831F96F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{653F2742-E875-48DE-9215-37E10B4907E9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14691,7 +14691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58BCDB6-C109-4BD5-8DB5-C97CABD11944}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378EC8C4-18B9-446D-A0A7-19DC2ACDB361}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15873,18 +15873,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B7AABE8-9341-4C33-B1DB-F47EB64CCA04}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC8CE5C4-74DA-4B76-9DDF-CF2214659054}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1981F88-B130-41C0-A457-227B61492DFC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D1DA2D8-740C-4E36-BEED-0F189363073D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3728E380-EFFB-4E23-A29B-E5BB1D322539}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8204F47-84C4-47EA-BC5E-CABB3FBD4424}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F2C5F1A-55E5-4967-8948-B3EF345D3D22}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67432673-A452-47AC-BEA3-9E6E03333831}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A488EA44-B0BA-4138-90A7-5213533CE72A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69992712-F397-44D7-9480-771B22C12A6C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A03B695-2E9A-4282-87B4-617FE9E4CE5C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3B8CA44B-7E96-442C-A62D-526D450FF702}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2FDBD4FA-EBA0-470D-8618-44A6A95227A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D83DCB7-DD82-4D50-9F21-28E169D6A997}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0988B555-3FEF-42F9-9C58-C5D7B214FA38}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{39F1BD1F-2D9A-4A1F-BA13-707FFF6FC9DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3DE840BB-0634-4979-BBA5-51C4CBE28ABD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2FB5F0D1-5981-4480-9D68-ADACB005B75F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82FB3E9D-2D7D-4F7B-91E7-1FC0B6D9BED3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6FE04868-172D-4EE5-9A10-DA3699579406}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4FCC881E-EE88-48DD-8A54-4E9CDCC9849D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FBFB4BE6-9C39-4775-A615-39FB96A1A3DB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{115ABAF9-6EC5-4951-95E1-B06F8410AF97}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76F47481-E875-4C76-9238-E46FBD146312}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
